--- a/biology/Zoologie/Chiarella/Chiarella.xlsx
+++ b/biology/Zoologie/Chiarella/Chiarella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiarella est un genre d'hydrozoaires de la famille des Bougainvilliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chiarella a été créé en 1897 par le biologiste allemand Otto Philipp Maas (d) (1867-1916) avec comme espèce type Chiarella centripetalis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chiarella a été créé en 1897 par le biologiste allemand Otto Philipp Maas (d) (1867-1916) avec comme espèce type Chiarella centripetalis,.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juillet 2021)[1], une seule espèce est rattachée à ce genre :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juillet 2021), une seule espèce est rattachée à ce genre :
 Chiarella centripetalis Maas, 1897
-Selon BioLib                    (9 juillet 2021)[3], l'espèce suivante doit l'être également :
+Selon BioLib                    (9 juillet 2021), l'espèce suivante doit l'être également :
 Chiarella jaschnowi (Naumov, 1956)
-Pour le WoRMS cette espèce fait partie du genre Koellikerina sous le taxon Koellikerina jaschnowi (Naumov, 1956)[1].
+Pour le WoRMS cette espèce fait partie du genre Koellikerina sous le taxon Koellikerina jaschnowi (Naumov, 1956).
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) von Otto Maas, « Die medusen », Memoirs of the Museum of Comparative Zoology, Cambridge, Muséum de zoologie comparée de l'université Harvard, vol. 23, no 1,‎ septembre 1897, p. 1-94 (ISSN 1067-8611, OCLC 30489714, DOI 10.5962/BHL.TITLE.39397, lire en ligne)</t>
         </is>
